--- a/techniqo/data_new_ticker/VMART.xlsx
+++ b/techniqo/data_new_ticker/VMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1385"/>
+  <dimension ref="A1:G1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48861,6 +48861,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>2063.5</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>2174.95</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>2057</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>2115.75</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>78646</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>2169.85</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>2056.65</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>2115.55</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>26072</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VMART.xlsx
+++ b/techniqo/data_new_ticker/VMART.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1387"/>
+  <dimension ref="A1:G1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48911,6 +48911,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>2118</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>2097.85</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>13783</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>2108.8</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>2083</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>2138.9</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>31132</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
